--- a/biology/Biochimie/Kyotorphine/Kyotorphine.xlsx
+++ b/biology/Biochimie/Kyotorphine/Kyotorphine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La kyotorphine, ou L-tyrosyl-L-arginine, est un dipeptide neuroactif qui joue un rôle important dans la régulation de la douleur dans le cerveau.  Elle a été isolée pour la première fois en 1979 par des chercheurs japonais de Kyoto à partir de cerveau de bovinés en 1979[2], d'où son nom, en rapport avec son action antalgique semblable à celle de la morphine et des endorphines.  Cependant, malgré cet effet antalgique, elle n'interagit pas avec les récepteurs des opiacés mais agit en libérant de la Met-enképhaline et en la stabilisant de la dégradation.  Elle pourrait également posséder une action neuromodulatrice.  On a pu montrer que la kyotorphine est présente dans le liquide céphalo-rachidien humain et que sa concentration est plus faible chez les patients atteints de douleur persistante[3].
+La kyotorphine, ou L-tyrosyl-L-arginine, est un dipeptide neuroactif qui joue un rôle important dans la régulation de la douleur dans le cerveau.  Elle a été isolée pour la première fois en 1979 par des chercheurs japonais de Kyoto à partir de cerveau de bovinés en 1979, d'où son nom, en rapport avec son action antalgique semblable à celle de la morphine et des endorphines.  Cependant, malgré cet effet antalgique, elle n'interagit pas avec les récepteurs des opiacés mais agit en libérant de la Met-enképhaline et en la stabilisant de la dégradation.  Elle pourrait également posséder une action neuromodulatrice.  On a pu montrer que la kyotorphine est présente dans le liquide céphalo-rachidien humain et que sa concentration est plus faible chez les patients atteints de douleur persistante.
 </t>
         </is>
       </c>
